--- a/biology/Médecine/Racine_postérieure_du_nerf_spinal/Racine_postérieure_du_nerf_spinal.xlsx
+++ b/biology/Médecine/Racine_postérieure_du_nerf_spinal/Racine_postérieure_du_nerf_spinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Racine_post%C3%A9rieure_du_nerf_spinal</t>
+          <t>Racine_postérieure_du_nerf_spinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les racines postérieures des nerfs spinaux (ou racines sensitives des nerfs spinaux[1]) sont des racines qui, avec les racines antérieures, forment les nerfs spinaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les racines postérieures des nerfs spinaux (ou racines sensitives des nerfs spinaux) sont des racines qui, avec les racines antérieures, forment les nerfs spinaux.
 Elles sont constituées de trois à dix fibres issues du sillon collatéral postérieur de la moelle spinale. Elles sont constituées des fibres sensorielles centripètes qui pénètrent dans la corne postérieure de celle-ci.
 Dans leur partie distale à leur entrée ou dans les foramens intervertébraux des renflements fusiformes constituent les ganglions sensitifs des nerfs spinaux qui contiennent des corps cellulaires de neurones sensitifs en T.
 Elles rejoignent ensuite les racines antérieures pour fusionner et donner les nerfs spinaux.
